--- a/Test Data/TC_50944_Verify_maximum_limit_for_Overall_System_Load.xlsx
+++ b/Test Data/TC_50944_Verify_maximum_limit_for_Overall_System_Load.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhasip\Desktop\NGConsys Automation_01_02_2019\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Color Codes</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Max System Load</t>
+  </si>
+  <si>
+    <t>LoadingDetail</t>
+  </si>
+  <si>
+    <t>System (A)</t>
   </si>
 </sst>
 </file>
@@ -230,14 +236,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G7" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,27 +542,27 @@
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -566,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -578,13 +584,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -603,8 +609,11 @@
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -620,11 +629,14 @@
       <c r="E8" s="5">
         <v>16</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -640,8 +652,11 @@
       <c r="E9" s="5">
         <v>16</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -650,6 +665,7 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Test Data/TC_50944_Verify_maximum_limit_for_Overall_System_Load.xlsx
+++ b/Test Data/TC_50944_Verify_maximum_limit_for_Overall_System_Load.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,7 +123,7 @@
     <t>LoadingDetail</t>
   </si>
   <si>
-    <t>System (A)</t>
+    <t>Total System Load(A)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/TC_50944_Verify_maximum_limit_for_Overall_System_Load.xlsx
+++ b/Test Data/TC_50944_Verify_maximum_limit_for_Overall_System_Load.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C848E750-7595-4B53-9908-0B4B120A8F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="8" r:id="rId1"/>
@@ -114,9 +115,6 @@
     <t>MX4000</t>
   </si>
   <si>
-    <t xml:space="preserve">NGC-488 </t>
-  </si>
-  <si>
     <t>Max System Load</t>
   </si>
   <si>
@@ -124,12 +122,15 @@
   </si>
   <si>
     <t>Total System Load(A)</t>
+  </si>
+  <si>
+    <t>NGC-605/T182 OR TC-50944</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
@@ -607,10 +608,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -633,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -643,8 +644,8 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
+      <c r="C9" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -656,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
